--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46086.46048647341</v>
+        <v>9171205.636808202</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46086.46048647341</v>
+        <v>9171205.636808202</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1863.993300618059</v>
+        <v>111839.5980370835</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1863.993300618059</v>
+        <v>111839.5980370835</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112124996.726282</v>
+        <v>45269215.90171624</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9096.660921023336</v>
+        <v>988888.2092894767</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17709.80109704529</v>
+        <v>1901936.563530608</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26322.94127306723</v>
+        <v>2814984.917771739</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35245.48044624642</v>
+        <v>3736732.345952265</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44124.30568003166</v>
+        <v>4649780.700193398</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53003.13091381691</v>
+        <v>5562829.054434529</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61881.95614760215</v>
+        <v>6475877.408675657</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71584.13976522576</v>
+        <v>7424352.426351127</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80611.12603883882</v>
+        <v>8294924.793582647</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89771.47150437105</v>
+        <v>9192035.640006084</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98812.20461694415</v>
+        <v>10105083.99424722</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>107650.7607598203</v>
+        <v>11009433.27454896</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>116533.0308420904</v>
+        <v>11922481.6287901</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>125417.5735367714</v>
+        <v>12835250.74913355</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>134302.1162314523</v>
+        <v>13748019.869477</v>
       </c>
     </row>
   </sheetData>
